--- a/DTC_data.xlsx
+++ b/DTC_data.xlsx
@@ -236,9 +236,6 @@
     <t>In process</t>
   </si>
   <si>
-    <t>in process</t>
-  </si>
-  <si>
     <t>Ageing</t>
   </si>
   <si>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>Open</t>
+  </si>
+  <si>
+    <t>P</t>
   </si>
 </sst>
 </file>
@@ -646,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H9" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -697,7 +697,7 @@
         <v>1</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L1" s="10" t="s">
         <v>2</v>
@@ -711,7 +711,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>24</v>
@@ -739,7 +739,7 @@
         <v>421</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -778,7 +778,7 @@
         <v>437</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -811,10 +811,10 @@
         <v>31</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -825,13 +825,13 @@
         <v>38</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F5" s="8">
         <v>45260</v>
@@ -849,8 +849,8 @@
       <c r="K5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>75</v>
+      <c r="L5" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -861,13 +861,13 @@
         <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F6" s="8">
         <v>45260</v>
@@ -885,11 +885,11 @@
       <c r="K6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="L6" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -903,7 +903,7 @@
         <v>9</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F7" s="8">
         <v>45609</v>
@@ -921,8 +921,8 @@
       <c r="K7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>75</v>
+      <c r="L7" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -933,7 +933,7 @@
         <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>41</v>
@@ -961,7 +961,7 @@
         <v>472</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.5" x14ac:dyDescent="0.35">
@@ -972,7 +972,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>14</v>
@@ -1000,7 +1000,7 @@
         <v>370</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -1011,13 +1011,13 @@
         <v>17</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F10" s="8">
         <v>45336</v>
@@ -1033,13 +1033,13 @@
         <v>49</v>
       </c>
       <c r="K10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+        <v>69</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>52</v>
       </c>
@@ -1047,13 +1047,13 @@
         <v>496</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F11" s="8">
         <v>45394</v>
@@ -1069,10 +1069,10 @@
         <v>53</v>
       </c>
       <c r="K11" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="L11" s="10" t="s">
-        <v>75</v>
+        <v>69</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -1083,7 +1083,7 @@
         <v>642</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>56</v>
@@ -1111,7 +1111,7 @@
         <v>125</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="58" x14ac:dyDescent="0.35">
@@ -1122,13 +1122,13 @@
         <v>934</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>59</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F13" s="8">
         <v>45530</v>
@@ -1146,8 +1146,8 @@
       <c r="K13" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>75</v>
+      <c r="L13" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -1158,13 +1158,13 @@
         <v>400</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F14" s="8">
         <v>44574</v>
@@ -1182,8 +1182,8 @@
       <c r="K14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>75</v>
+      <c r="L14" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -1194,7 +1194,7 @@
         <v>978</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>66</v>
@@ -1222,7 +1222,7 @@
         <v>390</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
